--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="225">
   <si>
     <t>Type</t>
   </si>
@@ -416,15 +416,6 @@
     <t>$F21.A07RV</t>
   </si>
   <si>
-    <t>prefcode</t>
-  </si>
-  <si>
-    <t>report.year</t>
-  </si>
-  <si>
-    <t>report.month</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -530,9 +521,6 @@
     <t>\type.label</t>
   </si>
   <si>
-    <t>report.shortyear|report.shortmonth|auto_increment</t>
-  </si>
-  <si>
     <t>IF_NOT_NULL(\statusHerd.code,\progId.label,)</t>
   </si>
   <si>
@@ -662,13 +650,49 @@
     <t>integer</t>
   </si>
   <si>
-    <t>RELATION(Preferences, country.label)</t>
-  </si>
-  <si>
-    <t>RELATION(Preferences, country.code)</t>
-  </si>
-  <si>
     <t>A04MQ|\source.label|\part.label|\prod.label|\animage.label</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Preferences</t>
+  </si>
+  <si>
+    <t>PreferencesId</t>
+  </si>
+  <si>
+    <t>SettingsId</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences, country.label}</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences, country.code}</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences, defScreening\type.code.code}</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences, defScreening\type.code.label}</t>
+  </si>
+  <si>
+    <t>RELATION{Report, reportYear.label}</t>
+  </si>
+  <si>
+    <t>RELATION{Report, reportMonth.label}</t>
+  </si>
+  <si>
+    <t>\repYear.label</t>
+  </si>
+  <si>
+    <t>END_TRIM(\repYear.code, 2)|END_TRIM(ZERO_PADDING(\sampM.code,2), 2)|_ZERO_PADDING({rowId},4)</t>
+  </si>
+  <si>
+    <t>RELATION{Report, reportMonth.code}</t>
+  </si>
+  <si>
+    <t>RELATION{Report, reportYear.code}</t>
   </si>
 </sst>
 </file>
@@ -684,18 +708,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -756,75 +774,212 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="35">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1208,18 +1363,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:P3" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:P3" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="code"/>
-    <tableColumn id="3" name="xmlTag"/>
+    <tableColumn id="1" name="id" dataDxfId="3"/>
+    <tableColumn id="2" name="code" dataDxfId="2"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="1"/>
     <tableColumn id="4" name="label"/>
     <tableColumn id="5" name="tip"/>
     <tableColumn id="6" name="type"/>
     <tableColumn id="7" name="Controlled terminology"/>
     <tableColumn id="8" name="mandatory"/>
-    <tableColumn id="9" name="editable" dataDxfId="28"/>
+    <tableColumn id="9" name="editable"/>
     <tableColumn id="10" name="visible"/>
     <tableColumn id="11" name="picklistKey"/>
     <tableColumn id="12" name="picklistFilter"/>
@@ -1233,21 +1388,46 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:P8" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:P3" totalsRowShown="0" headerRowDxfId="34">
+  <autoFilter ref="A1:P3"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="code"/>
+    <tableColumn id="3" name="xmlTag"/>
+    <tableColumn id="4" name="label"/>
+    <tableColumn id="5" name="tip"/>
+    <tableColumn id="6" name="type"/>
+    <tableColumn id="7" name="Controlled terminology"/>
+    <tableColumn id="8" name="mandatory"/>
+    <tableColumn id="9" name="editable" dataDxfId="33"/>
+    <tableColumn id="10" name="visible"/>
+    <tableColumn id="11" name="picklistKey"/>
+    <tableColumn id="12" name="picklistFilter"/>
+    <tableColumn id="13" name="defaultCode"/>
+    <tableColumn id="14" name="defaultValue"/>
+    <tableColumn id="15" name="putInOutput"/>
+    <tableColumn id="16" name="order"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:P8" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="id" dataDxfId="26"/>
+    <tableColumn id="1" name="id" dataDxfId="31"/>
     <tableColumn id="2" name="code"/>
     <tableColumn id="3" name="xmlTag"/>
-    <tableColumn id="4" name="label" dataDxfId="25"/>
-    <tableColumn id="5" name="tip" dataDxfId="24"/>
-    <tableColumn id="6" name="type" dataDxfId="23"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="22"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="21"/>
-    <tableColumn id="9" name="editable" dataDxfId="20"/>
-    <tableColumn id="10" name="visible" dataDxfId="19"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="18"/>
-    <tableColumn id="17" name="picklistFilter" dataDxfId="17"/>
+    <tableColumn id="4" name="label" dataDxfId="30"/>
+    <tableColumn id="5" name="tip" dataDxfId="29"/>
+    <tableColumn id="6" name="type" dataDxfId="28"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="27"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="26"/>
+    <tableColumn id="9" name="editable" dataDxfId="25"/>
+    <tableColumn id="10" name="visible" dataDxfId="24"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="23"/>
+    <tableColumn id="17" name="picklistFilter" dataDxfId="22"/>
     <tableColumn id="12" name="defaultCode"/>
     <tableColumn id="13" name="defaultValue"/>
     <tableColumn id="14" name="putInOutput"/>
@@ -1257,37 +1437,37 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P34" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:P34"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P36" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:P36"/>
   <sortState ref="A2:P33">
     <sortCondition ref="P1:P33"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="id" dataDxfId="15"/>
-    <tableColumn id="2" name="code" dataDxfId="14"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="13"/>
-    <tableColumn id="4" name="label" dataDxfId="12"/>
-    <tableColumn id="5" name="tip" dataDxfId="11"/>
-    <tableColumn id="6" name="type" dataDxfId="10"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="9"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="8"/>
-    <tableColumn id="9" name="editable" dataDxfId="7"/>
-    <tableColumn id="10" name="visible" dataDxfId="6"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="5"/>
-    <tableColumn id="16" name="picklistFilter" dataDxfId="4"/>
-    <tableColumn id="12" name="defaultCode" dataDxfId="3"/>
-    <tableColumn id="13" name="defaultValue" dataDxfId="2"/>
-    <tableColumn id="14" name="putInOutput" dataDxfId="1"/>
-    <tableColumn id="15" name="order" dataDxfId="0"/>
+    <tableColumn id="1" name="id" dataDxfId="21"/>
+    <tableColumn id="2" name="code" dataDxfId="20"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="19"/>
+    <tableColumn id="4" name="label" dataDxfId="18"/>
+    <tableColumn id="5" name="tip" dataDxfId="17"/>
+    <tableColumn id="6" name="type" dataDxfId="16"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="15"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="14"/>
+    <tableColumn id="9" name="editable" dataDxfId="13"/>
+    <tableColumn id="10" name="visible" dataDxfId="12"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="11"/>
+    <tableColumn id="16" name="picklistFilter" dataDxfId="10"/>
+    <tableColumn id="12" name="defaultCode" dataDxfId="9"/>
+    <tableColumn id="13" name="defaultValue" dataDxfId="8"/>
+    <tableColumn id="14" name="putInOutput" dataDxfId="7"/>
+    <tableColumn id="15" name="order" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="parentTable"/>
     <tableColumn id="2" name="childTable"/>
@@ -1589,24 +1769,26 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="41.5703125" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="18.140625" customWidth="1"/>
     <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1644,7 +1826,7 @@
         <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>128</v>
@@ -1656,88 +1838,88 @@
         <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="G3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>200</v>
+      <c r="N3" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -1746,6 +1928,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1757,7 +1942,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,7 +1998,7 @@
         <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>128</v>
@@ -1825,73 +2010,73 @@
         <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="11"/>
+      <c r="A2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="9"/>
       <c r="P2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="12"/>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="10"/>
       <c r="P3">
         <v>2</v>
       </c>
@@ -1913,7 +2098,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,7 +2153,7 @@
         <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>128</v>
@@ -1980,274 +2165,274 @@
         <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>135</v>
+      <c r="A2" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="13"/>
+      <c r="H2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="11"/>
       <c r="P2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="H3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>181</v>
+      <c r="L3" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="9" t="s">
+      <c r="B5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="H5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="L5" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="9" t="s">
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="H6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>181</v>
+      <c r="L6" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="P6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="A7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="H7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>182</v>
+      <c r="L7" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="P7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>153</v>
+      <c r="A8" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="H8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>183</v>
+      <c r="L8" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="P8">
         <v>7</v>
@@ -2263,1287 +2448,1316 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14:I34"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="49.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="14"/>
+    <col min="3" max="3" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="49.42578125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="50.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="80.7109375" style="14" customWidth="1"/>
+    <col min="15" max="15" width="20" style="14" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="O2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="G3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="P3" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="G4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P4" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="F15" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P7" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="C26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="F35" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O34" s="1" t="s">
+      <c r="F36" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3557,10 +3771,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3571,18 +3785,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
